--- a/xls/template.xlsx
+++ b/xls/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06_Project\Nodej2Excel\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06_Project\Nodejs2Excel\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EBE0CD-1FD8-4AB9-BDAA-E41F3388D89D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6785E0F3-794D-433C-B6D6-028957EB4B94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4428,7 +4428,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4440,114 +4440,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="13">
-        <v>11</v>
-      </c>
+      <c r="A1" s="13"/>
       <c r="B1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="22">
-        <v>13</v>
-      </c>
-      <c r="D1" s="12">
-        <v>14</v>
-      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>21</v>
-      </c>
-      <c r="B2" s="11">
-        <v>22</v>
-      </c>
-      <c r="C2" s="11">
-        <v>23</v>
-      </c>
-      <c r="D2" s="4">
-        <v>24</v>
-      </c>
+      <c r="A2" s="5"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>31</v>
-      </c>
+      <c r="A3" s="5"/>
       <c r="B3" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="4">
-        <v>34</v>
-      </c>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>41</v>
-      </c>
+      <c r="A4" s="5"/>
       <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4">
-        <v>44</v>
-      </c>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
-        <v>5</v>
-      </c>
+      <c r="A5" s="16"/>
       <c r="B5" s="8">
         <v>13336</v>
       </c>
       <c r="C5" s="7">
         <v>13385</v>
       </c>
-      <c r="D5" s="15">
-        <v>54</v>
-      </c>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>61</v>
-      </c>
-      <c r="B6" s="6">
-        <v>62</v>
-      </c>
-      <c r="C6" s="6">
-        <v>63</v>
-      </c>
-      <c r="D6" s="4">
-        <v>64</v>
-      </c>
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5">
-        <v>71</v>
-      </c>
+      <c r="A7" s="5"/>
       <c r="B7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="23">
-        <v>73</v>
-      </c>
-      <c r="D7" s="4">
-        <v>74</v>
-      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>81</v>
-      </c>
-      <c r="B8" s="2">
-        <v>82</v>
-      </c>
-      <c r="C8" s="2">
-        <v>83</v>
-      </c>
-      <c r="D8" s="1">
-        <v>84</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
